--- a/media/output/result/Production_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/Production_complex_evaluation_weighted_edit_distance.xlsx
@@ -534,25 +534,25 @@
         <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.7796610169491525</v>
       </c>
     </row>
     <row r="5">

--- a/media/output/result/Production_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/Production_complex_evaluation_weighted_edit_distance.xlsx
@@ -476,10 +476,10 @@
         <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -517,13 +517,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.65</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.787878787878788</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5">

--- a/media/output/result/Production_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/Production_complex_evaluation_weighted_edit_distance.xlsx
@@ -534,25 +534,25 @@
         <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1304347826086956</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.7796610169491525</v>
       </c>
     </row>
     <row r="5">
